--- a/OnBoard/output/trust/bio/Bio_Trust_44.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_44.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F2">
@@ -477,14 +477,14 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L2">
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F3">
@@ -524,14 +524,14 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L3">
@@ -541,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F4">
@@ -571,14 +571,14 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L4">
@@ -588,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F5">
@@ -618,14 +618,14 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L5">
@@ -635,7 +635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F6">
@@ -665,14 +665,14 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L6">
@@ -682,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F7">
@@ -712,14 +712,14 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L7">
@@ -729,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F8">
@@ -759,14 +759,14 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L8">
@@ -776,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F9">
@@ -806,14 +806,14 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L9">
@@ -823,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -838,12 +838,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F10">
@@ -853,14 +853,14 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>51</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L10">
@@ -870,7 +870,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -885,12 +885,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F11">
@@ -900,14 +900,14 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L11">
@@ -917,7 +917,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -932,12 +932,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CALLSAP</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F12">
@@ -947,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I12">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -959,17 +959,12 @@
       </c>
       <c r="L12">
         <v>0</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>SENZA CHELE</t>
-        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,12 +979,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F13">
@@ -999,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1016,7 +1011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,12 +1026,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F14">
@@ -1046,19 +1041,14 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>267</v>
+        <v>25</v>
       </c>
       <c r="I14">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L14">
@@ -1068,7 +1058,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1083,12 +1073,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F15">
@@ -1098,19 +1088,14 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="I15">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L15">
@@ -1120,7 +1105,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1135,12 +1120,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F16">
@@ -1150,19 +1135,14 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="I16">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L16">
@@ -1172,7 +1152,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1187,12 +1167,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F17">
@@ -1202,19 +1182,14 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="I17">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L17">
@@ -1224,7 +1199,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1239,12 +1214,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F18">
@@ -1254,19 +1229,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="I18">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L18">
@@ -1276,7 +1251,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1291,12 +1266,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F19">
@@ -1306,19 +1281,19 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="I19">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L19">
@@ -1328,7 +1303,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1343,12 +1318,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F20">
@@ -1358,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="I20">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1370,7 +1345,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L20">
@@ -1380,7 +1355,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1400,7 +1375,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F21">
@@ -1410,19 +1385,19 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="I21">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L21">
@@ -1432,7 +1407,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1452,7 +1427,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F22">
@@ -1462,19 +1437,19 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="I22">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L22">
@@ -1484,7 +1459,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1504,7 +1479,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F23">
@@ -1514,19 +1489,19 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="I23">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L23">
@@ -1536,7 +1511,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1556,7 +1531,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F24">
@@ -1566,19 +1541,19 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="I24">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L24">
@@ -1588,7 +1563,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1608,7 +1583,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F25">
@@ -1618,10 +1593,10 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>235</v>
+        <v>24</v>
       </c>
       <c r="I25">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1630,7 +1605,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L25">
@@ -1640,7 +1615,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1660,7 +1635,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F26">
@@ -1670,19 +1645,19 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="I26">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L26">
@@ -1692,7 +1667,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1712,7 +1687,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F27">
@@ -1722,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="I27">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1734,7 +1709,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L27">
@@ -1744,7 +1719,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1764,7 +1739,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F28">
@@ -1774,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="I28">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1786,7 +1761,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L28">
@@ -1796,7 +1771,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1816,7 +1791,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F29">
@@ -1826,19 +1801,19 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="I29">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L29">
@@ -1848,7 +1823,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1868,7 +1843,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F30">
@@ -1878,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="I30">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1890,7 +1865,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L30">
@@ -1900,7 +1875,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1920,7 +1895,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F31">
@@ -1930,14 +1905,19 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>292</v>
+        <v>28</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L31">
@@ -1947,7 +1927,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1967,7 +1947,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F32">
@@ -1977,14 +1957,19 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L32">
@@ -1994,7 +1979,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2014,7 +1999,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F33">
@@ -2024,14 +2009,19 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L33">
@@ -2041,7 +2031,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2061,7 +2051,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F34">
@@ -2071,14 +2061,19 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L34">
@@ -2088,7 +2083,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2108,7 +2103,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F35">
@@ -2118,14 +2113,19 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>FROSQ-3</t>
         </is>
       </c>
       <c r="L35">
@@ -2135,7 +2135,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SARDPIL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F36">
@@ -2165,14 +2165,19 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L36">
@@ -2182,7 +2187,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2202,7 +2207,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F37">
@@ -2212,10 +2217,10 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2224,7 +2229,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L37">
@@ -2234,7 +2239,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2254,7 +2259,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F38">
@@ -2264,14 +2269,19 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I38">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>FROSQ-3</t>
         </is>
       </c>
       <c r="L38">
@@ -2281,7 +2291,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2301,7 +2311,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F39">
@@ -2311,19 +2321,19 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I39">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>SOSEM-2</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L39">
@@ -2333,7 +2343,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2353,7 +2363,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F40">
@@ -2363,19 +2373,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I40">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>FROSQ-3</t>
         </is>
       </c>
       <c r="L40">
@@ -2385,7 +2395,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2400,12 +2410,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F41">
@@ -2415,10 +2425,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2427,7 +2437,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-3</t>
         </is>
       </c>
       <c r="L41">
@@ -2437,7 +2447,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2452,12 +2462,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F42">
@@ -2467,10 +2477,10 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2479,7 +2489,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L42">
@@ -2489,7 +2499,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2504,12 +2514,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F43">
@@ -2519,10 +2529,10 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>307</v>
+        <v>25</v>
       </c>
       <c r="I43">
-        <v>305</v>
+        <v>23</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2531,22 +2541,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>FROSQ-2</t>
         </is>
       </c>
       <c r="L43">
         <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>SS7763</t>
-        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2561,12 +2566,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F44">
@@ -2576,10 +2581,10 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="I44">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2588,22 +2593,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>FROSQ-3</t>
         </is>
       </c>
       <c r="L44">
         <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>SS7764</t>
-        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2618,12 +2618,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F45">
@@ -2633,34 +2633,29 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="I45">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>FROSQ-3</t>
         </is>
       </c>
       <c r="L45">
         <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>SS7765</t>
-        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2675,12 +2670,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F46">
@@ -2690,34 +2685,24 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="I46">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L46">
         <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>SS7766</t>
-        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2732,12 +2717,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F47">
@@ -2747,34 +2732,24 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="I47">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
       <c r="L47">
         <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>SS7767</t>
-        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2789,12 +2764,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F48">
@@ -2804,34 +2779,24 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="I48">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
       <c r="L48">
         <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>SS7768</t>
-        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2846,12 +2811,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F49">
@@ -2861,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="I49">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2873,22 +2838,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L49">
         <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>SS7769</t>
-        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2908,7 +2868,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F50">
@@ -2918,10 +2878,10 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I50">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2930,22 +2890,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L50">
         <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>SS7770</t>
-        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2965,7 +2920,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F51">
@@ -2975,34 +2930,29 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="I51">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L51">
         <v>0</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>SS7771</t>
-        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3022,38 +2972,5526 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>38</v>
+      </c>
+      <c r="I52">
+        <v>28</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>32</v>
+      </c>
+      <c r="I53">
+        <v>19</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>SOLEVUL</t>
         </is>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>269</v>
+      </c>
+      <c r="I54">
+        <v>168</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>247</v>
+      </c>
+      <c r="I55">
+        <v>119</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>242</v>
+      </c>
+      <c r="I56">
+        <v>130</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>228</v>
+      </c>
+      <c r="I57">
+        <v>114</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>239</v>
+      </c>
+      <c r="I58">
+        <v>117</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>247</v>
+      </c>
+      <c r="I59">
+        <v>135</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>252</v>
+      </c>
+      <c r="I60">
+        <v>128</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>282</v>
+      </c>
+      <c r="I61">
+        <v>198</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>234</v>
+      </c>
+      <c r="I62">
+        <v>110</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>240</v>
+      </c>
+      <c r="I63">
+        <v>105</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>252</v>
+      </c>
+      <c r="I64">
+        <v>132</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>287</v>
+      </c>
+      <c r="I65">
+        <v>233</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>235</v>
+      </c>
+      <c r="I66">
+        <v>111</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>253</v>
+      </c>
+      <c r="I67">
+        <v>145</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>261</v>
+      </c>
+      <c r="I68">
+        <v>156</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>97</v>
+      </c>
+      <c r="I69">
+        <v>-1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MULLBAR</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>129</v>
+      </c>
+      <c r="I70">
+        <v>26</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TRACMED</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>227</v>
+      </c>
+      <c r="I71">
+        <v>-1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>PECTJAC</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>75</v>
+      </c>
+      <c r="I72">
+        <v>52</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ELEDMOS</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>80</v>
+      </c>
+      <c r="I73">
+        <v>-1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>123</v>
+      </c>
+      <c r="I74">
+        <v>249</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>SOSEF-3</t>
+        </is>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>120</v>
+      </c>
+      <c r="I75">
+        <v>240</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
+        </is>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>122</v>
+      </c>
+      <c r="I76">
+        <v>210</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
+        </is>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>32</v>
+      </c>
+      <c r="I77">
+        <v>18</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>31</v>
+      </c>
+      <c r="I78">
+        <v>15</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>44</v>
+      </c>
+      <c r="I79">
+        <v>43</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>26</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>29</v>
+      </c>
+      <c r="I81">
+        <v>14</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>28</v>
+      </c>
+      <c r="I82">
+        <v>11</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>112</v>
+      </c>
+      <c r="I83">
+        <v>-1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>GOBINIG</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>119</v>
+      </c>
+      <c r="I84">
+        <v>-1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>TRIGLUC</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>145</v>
+      </c>
+      <c r="I85">
+        <v>-1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>111</v>
+      </c>
+      <c r="I86">
+        <v>-1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>125</v>
+      </c>
+      <c r="I87">
+        <v>-1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>GOBINIG</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>122</v>
+      </c>
+      <c r="I88">
+        <v>-1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>264</v>
+      </c>
+      <c r="I89">
+        <v>174</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>232</v>
+      </c>
+      <c r="I90">
+        <v>105</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>257</v>
+      </c>
+      <c r="I91">
+        <v>154</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>251</v>
+      </c>
+      <c r="I92">
+        <v>169</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>253</v>
+      </c>
+      <c r="I93">
+        <v>123</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>215</v>
+      </c>
+      <c r="I94">
+        <v>79</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>266</v>
+      </c>
+      <c r="I95">
+        <v>156</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
         <v>229</v>
       </c>
-      <c r="I52">
-        <v>131</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="I96">
+        <v>110</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>261</v>
+      </c>
+      <c r="I97">
+        <v>187</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>242</v>
+      </c>
+      <c r="I98">
+        <v>124</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>278</v>
+      </c>
+      <c r="I99">
+        <v>181</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>235</v>
+      </c>
+      <c r="I100">
+        <v>127</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>248</v>
+      </c>
+      <c r="I101">
+        <v>130</v>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>207</v>
+      </c>
+      <c r="I102">
+        <v>81</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>HOLRM-3</t>
         </is>
       </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>SS7772</t>
-        </is>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>130</v>
+      </c>
+      <c r="I103">
+        <v>307</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>SOSEF-3</t>
+        </is>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>122</v>
+      </c>
+      <c r="I104">
+        <v>242</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>SOSEF-3</t>
+        </is>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>115</v>
+      </c>
+      <c r="I105">
+        <v>205</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
+        </is>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>102</v>
+      </c>
+      <c r="I106">
+        <v>151</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
+        </is>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>100</v>
+      </c>
+      <c r="I107">
+        <v>135</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
+        </is>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>88</v>
+      </c>
+      <c r="I108">
+        <v>93</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
+        </is>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>121</v>
+      </c>
+      <c r="I109">
+        <v>239</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
+        </is>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>110</v>
+      </c>
+      <c r="I110">
+        <v>172</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
+        </is>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>31</v>
+      </c>
+      <c r="I111">
+        <v>39</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>28</v>
+      </c>
+      <c r="I112">
+        <v>31</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>32</v>
+      </c>
+      <c r="I113">
+        <v>40</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>25</v>
+      </c>
+      <c r="I114">
+        <v>24</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>31</v>
+      </c>
+      <c r="I115">
+        <v>39</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>29</v>
+      </c>
+      <c r="I116">
+        <v>31</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>31</v>
+      </c>
+      <c r="I117">
+        <v>38</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>30</v>
+      </c>
+      <c r="I118">
+        <v>38</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>30</v>
+      </c>
+      <c r="I119">
+        <v>32</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>30</v>
+      </c>
+      <c r="I120">
+        <v>31</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>25</v>
+      </c>
+      <c r="I121">
+        <v>26</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>30</v>
+      </c>
+      <c r="I122">
+        <v>33</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>31</v>
+      </c>
+      <c r="I123">
+        <v>48</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>29</v>
+      </c>
+      <c r="I124">
+        <v>36</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>30</v>
+      </c>
+      <c r="I125">
+        <v>37</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>26</v>
+      </c>
+      <c r="I126">
+        <v>25</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>26</v>
+      </c>
+      <c r="I127">
+        <v>27</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>27</v>
+      </c>
+      <c r="I128">
+        <v>34</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>25</v>
+      </c>
+      <c r="I129">
+        <v>21</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>29</v>
+      </c>
+      <c r="I130">
+        <v>34</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>25</v>
+      </c>
+      <c r="I131">
+        <v>19</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>26</v>
+      </c>
+      <c r="I132">
+        <v>23</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>31</v>
+      </c>
+      <c r="I133">
+        <v>44</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>23</v>
+      </c>
+      <c r="I134">
+        <v>18</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>26</v>
+      </c>
+      <c r="I135">
+        <v>26</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>23</v>
+      </c>
+      <c r="I136">
+        <v>17</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>20</v>
+      </c>
+      <c r="I137">
+        <v>14</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>23</v>
+      </c>
+      <c r="I138">
+        <v>19</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>26</v>
+      </c>
+      <c r="I139">
+        <v>25</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>26</v>
+      </c>
+      <c r="I140">
+        <v>23</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>23</v>
+      </c>
+      <c r="I141">
+        <v>20</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>26</v>
+      </c>
+      <c r="I142">
+        <v>26</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>25</v>
+      </c>
+      <c r="I143">
+        <v>24</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>26</v>
+      </c>
+      <c r="I144">
+        <v>24</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>26</v>
+      </c>
+      <c r="I145">
+        <v>22</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>27</v>
+      </c>
+      <c r="I146">
+        <v>27</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>25</v>
+      </c>
+      <c r="I147">
+        <v>21</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>28</v>
+      </c>
+      <c r="I148">
+        <v>30</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>23</v>
+      </c>
+      <c r="I149">
+        <v>18</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>23</v>
+      </c>
+      <c r="I150">
+        <v>19</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>28</v>
+      </c>
+      <c r="I151">
+        <v>27</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>28</v>
+      </c>
+      <c r="I152">
+        <v>28</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>FROSQ-3</t>
+        </is>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>29</v>
+      </c>
+      <c r="I153">
+        <v>33</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>FROSQ-3</t>
+        </is>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>28</v>
+      </c>
+      <c r="I154">
+        <v>31</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>FROSQ-3</t>
+        </is>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>30</v>
+      </c>
+      <c r="I155">
+        <v>41</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>FROSQ-3</t>
+        </is>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>30</v>
+      </c>
+      <c r="I156">
+        <v>33</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>FROSQ-3</t>
+        </is>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>29</v>
+      </c>
+      <c r="I157">
+        <v>38</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>FROSQ-3</t>
+        </is>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>27</v>
+      </c>
+      <c r="I158">
+        <v>26</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>294</v>
+      </c>
+      <c r="I159">
+        <v>234</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>SS8369</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>22</v>
+      </c>
+      <c r="I160">
+        <v>14</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>PECTJAC</t>
+        </is>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>41</v>
+      </c>
+      <c r="I161">
+        <v>11</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L161">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
